--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H2">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J2">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.38114276763198</v>
+        <v>3.767160666666667</v>
       </c>
       <c r="N2">
-        <v>3.38114276763198</v>
+        <v>11.301482</v>
       </c>
       <c r="O2">
-        <v>0.04832925786263015</v>
+        <v>0.05327117368020191</v>
       </c>
       <c r="P2">
-        <v>0.04832925786263015</v>
+        <v>0.05327117368020191</v>
       </c>
       <c r="Q2">
-        <v>24.023963462742</v>
+        <v>16.96955068334644</v>
       </c>
       <c r="R2">
-        <v>24.023963462742</v>
+        <v>152.725956150118</v>
       </c>
       <c r="S2">
-        <v>0.03606120124997682</v>
+        <v>0.01529237845152862</v>
       </c>
       <c r="T2">
-        <v>0.03606120124997682</v>
+        <v>0.01529237845152862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H3">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J3">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.4334848927437</v>
+        <v>39.446935</v>
       </c>
       <c r="N3">
-        <v>39.4334848927437</v>
+        <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5636529394877585</v>
+        <v>0.5578165391591924</v>
       </c>
       <c r="P3">
-        <v>0.5636529394877585</v>
+        <v>0.5578165391591923</v>
       </c>
       <c r="Q3">
-        <v>280.1859209675873</v>
+        <v>177.6926502520217</v>
       </c>
       <c r="R3">
-        <v>280.1859209675873</v>
+        <v>1599.233852268195</v>
       </c>
       <c r="S3">
-        <v>0.4205734369806211</v>
+        <v>0.1601305365365844</v>
       </c>
       <c r="T3">
-        <v>0.4205734369806211</v>
+        <v>0.1601305365365844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H4">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J4">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.1430870838226</v>
+        <v>1.169082333333333</v>
       </c>
       <c r="N4">
-        <v>1.1430870838226</v>
+        <v>3.507247</v>
       </c>
       <c r="O4">
-        <v>0.01633901737671831</v>
+        <v>0.01653191714824366</v>
       </c>
       <c r="P4">
-        <v>0.01633901737671831</v>
+        <v>0.01653191714824366</v>
       </c>
       <c r="Q4">
-        <v>8.12195290875558</v>
+        <v>5.266247889039221</v>
       </c>
       <c r="R4">
-        <v>8.12195290875558</v>
+        <v>47.39623100135299</v>
       </c>
       <c r="S4">
-        <v>0.01219146785831985</v>
+        <v>0.004745762409477659</v>
       </c>
       <c r="T4">
-        <v>0.01219146785831985</v>
+        <v>0.00474576240947766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.10527922474195</v>
+        <v>4.504599666666667</v>
       </c>
       <c r="H5">
-        <v>7.10527922474195</v>
+        <v>13.513799</v>
       </c>
       <c r="I5">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="J5">
-        <v>0.7461567349632444</v>
+        <v>0.2870666703033801</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0028622885063</v>
+        <v>26.33350433333333</v>
       </c>
       <c r="N5">
-        <v>26.0028622885063</v>
+        <v>79.000513</v>
       </c>
       <c r="O5">
-        <v>0.3716787852728931</v>
+        <v>0.372380370012362</v>
       </c>
       <c r="P5">
-        <v>0.3716787852728931</v>
+        <v>0.372380370012362</v>
       </c>
       <c r="Q5">
-        <v>184.7575972023497</v>
+        <v>118.6218948420986</v>
       </c>
       <c r="R5">
-        <v>184.7575972023497</v>
+        <v>1067.597053578887</v>
       </c>
       <c r="S5">
-        <v>0.2773306288743267</v>
+        <v>0.1068979929057894</v>
       </c>
       <c r="T5">
-        <v>0.2773306288743267</v>
+        <v>0.1068979929057894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H6">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J6">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.38114276763198</v>
+        <v>3.767160666666667</v>
       </c>
       <c r="N6">
-        <v>3.38114276763198</v>
+        <v>11.301482</v>
       </c>
       <c r="O6">
-        <v>0.04832925786263015</v>
+        <v>0.05327117368020191</v>
       </c>
       <c r="P6">
-        <v>0.04832925786263015</v>
+        <v>0.05327117368020191</v>
       </c>
       <c r="Q6">
-        <v>8.172976318181394</v>
+        <v>28.17863678939533</v>
       </c>
       <c r="R6">
-        <v>8.172976318181394</v>
+        <v>253.607731104558</v>
       </c>
       <c r="S6">
-        <v>0.01226805661265332</v>
+        <v>0.02539362332406921</v>
       </c>
       <c r="T6">
-        <v>0.01226805661265332</v>
+        <v>0.02539362332406921</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H7">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J7">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.4334848927437</v>
+        <v>39.446935</v>
       </c>
       <c r="N7">
-        <v>39.4334848927437</v>
+        <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5636529394877585</v>
+        <v>0.5578165391591924</v>
       </c>
       <c r="P7">
-        <v>0.5636529394877585</v>
+        <v>0.5578165391591923</v>
       </c>
       <c r="Q7">
-        <v>95.31952961497589</v>
+        <v>295.065953426255</v>
       </c>
       <c r="R7">
-        <v>95.31952961497589</v>
+        <v>2655.593580836295</v>
       </c>
       <c r="S7">
-        <v>0.1430795025071374</v>
+        <v>0.2659033413526762</v>
       </c>
       <c r="T7">
-        <v>0.1430795025071374</v>
+        <v>0.2659033413526762</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.41722307511594</v>
+        <v>7.480073</v>
       </c>
       <c r="H8">
-        <v>2.41722307511594</v>
+        <v>22.440219</v>
       </c>
       <c r="I8">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="J8">
-        <v>0.2538432650367555</v>
+        <v>0.476686011772755</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1430870838226</v>
+        <v>1.169082333333333</v>
       </c>
       <c r="N8">
-        <v>1.1430870838226</v>
+        <v>3.507247</v>
       </c>
       <c r="O8">
-        <v>0.01633901737671831</v>
+        <v>0.01653191714824366</v>
       </c>
       <c r="P8">
-        <v>0.01633901737671831</v>
+        <v>0.01653191714824366</v>
       </c>
       <c r="Q8">
-        <v>2.763096475882977</v>
+        <v>8.744821196343665</v>
       </c>
       <c r="R8">
-        <v>2.763096475882977</v>
+        <v>78.70339076709298</v>
       </c>
       <c r="S8">
-        <v>0.004147549518398459</v>
+        <v>0.00788053365235389</v>
       </c>
       <c r="T8">
-        <v>0.004147549518398459</v>
+        <v>0.00788053365235389</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.480073</v>
+      </c>
+      <c r="H9">
+        <v>22.440219</v>
+      </c>
+      <c r="I9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="J9">
+        <v>0.476686011772755</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.33350433333333</v>
+      </c>
+      <c r="N9">
+        <v>79.000513</v>
+      </c>
+      <c r="O9">
+        <v>0.372380370012362</v>
+      </c>
+      <c r="P9">
+        <v>0.372380370012362</v>
+      </c>
+      <c r="Q9">
+        <v>196.9765347591497</v>
+      </c>
+      <c r="R9">
+        <v>1772.788812832347</v>
+      </c>
+      <c r="S9">
+        <v>0.1775085134436557</v>
+      </c>
+      <c r="T9">
+        <v>0.1775085134436557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H10">
+        <v>11.121454</v>
+      </c>
+      <c r="I10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J10">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.767160666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.301482</v>
+      </c>
+      <c r="O10">
+        <v>0.05327117368020191</v>
+      </c>
+      <c r="P10">
+        <v>0.05327117368020191</v>
+      </c>
+      <c r="Q10">
+        <v>13.96543468831422</v>
+      </c>
+      <c r="R10">
+        <v>125.688912194828</v>
+      </c>
+      <c r="S10">
+        <v>0.01258517190460409</v>
+      </c>
+      <c r="T10">
+        <v>0.01258517190460409</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="H9">
-        <v>2.41722307511594</v>
-      </c>
-      <c r="I9">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="J9">
-        <v>0.2538432650367555</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>26.0028622885063</v>
-      </c>
-      <c r="N9">
-        <v>26.0028622885063</v>
-      </c>
-      <c r="O9">
-        <v>0.3716787852728931</v>
-      </c>
-      <c r="P9">
-        <v>0.3716787852728931</v>
-      </c>
-      <c r="Q9">
-        <v>62.85471874283951</v>
-      </c>
-      <c r="R9">
-        <v>62.85471874283951</v>
-      </c>
-      <c r="S9">
-        <v>0.09434815639856634</v>
-      </c>
-      <c r="T9">
-        <v>0.09434815639856634</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H11">
+        <v>11.121454</v>
+      </c>
+      <c r="I11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J11">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>39.446935</v>
+      </c>
+      <c r="N11">
+        <v>118.340805</v>
+      </c>
+      <c r="O11">
+        <v>0.5578165391591924</v>
+      </c>
+      <c r="P11">
+        <v>0.5578165391591923</v>
+      </c>
+      <c r="Q11">
+        <v>146.2357576811634</v>
+      </c>
+      <c r="R11">
+        <v>1316.12181913047</v>
+      </c>
+      <c r="S11">
+        <v>0.1317826612699317</v>
+      </c>
+      <c r="T11">
+        <v>0.1317826612699317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H12">
+        <v>11.121454</v>
+      </c>
+      <c r="I12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J12">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.169082333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.507247</v>
+      </c>
+      <c r="O12">
+        <v>0.01653191714824366</v>
+      </c>
+      <c r="P12">
+        <v>0.01653191714824366</v>
+      </c>
+      <c r="Q12">
+        <v>4.333965130793111</v>
+      </c>
+      <c r="R12">
+        <v>39.005686177138</v>
+      </c>
+      <c r="S12">
+        <v>0.003905621086412115</v>
+      </c>
+      <c r="T12">
+        <v>0.003905621086412115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.707151333333333</v>
+      </c>
+      <c r="H13">
+        <v>11.121454</v>
+      </c>
+      <c r="I13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="J13">
+        <v>0.2362473179238649</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>26.33350433333333</v>
+      </c>
+      <c r="N13">
+        <v>79.000513</v>
+      </c>
+      <c r="O13">
+        <v>0.372380370012362</v>
+      </c>
+      <c r="P13">
+        <v>0.372380370012362</v>
+      </c>
+      <c r="Q13">
+        <v>97.62228570065578</v>
+      </c>
+      <c r="R13">
+        <v>878.600571305902</v>
+      </c>
+      <c r="S13">
+        <v>0.08797386366291693</v>
+      </c>
+      <c r="T13">
+        <v>0.08797386366291694</v>
       </c>
     </row>
   </sheetData>
